--- a/wd-admin-web/src/main/webapp/static/upload/库存黑名单模板.xlsx
+++ b/wd-admin-web/src/main/webapp/static/upload/库存黑名单模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13650" tabRatio="660"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="660"/>
   </bookViews>
   <sheets>
     <sheet name="库存黑名单" sheetId="13" r:id="rId1"/>
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>货号</t>
+  </si>
+  <si>
+    <t>过滤尺码范围</t>
   </si>
 </sst>
 </file>
@@ -24,10 +27,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -50,88 +53,55 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -143,6 +113,39 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
@@ -150,16 +153,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -173,43 +176,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,85 +290,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,6 +331,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="22"/>
       </left>
@@ -361,6 +412,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color indexed="52"/>
       </bottom>
@@ -377,63 +437,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -442,10 +445,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -454,133 +457,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -674,7 +677,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -953,20 +956,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="23.375" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:1">
+    <row r="1" ht="16.5" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
